--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter04/Style_04_01.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter04/Style_04_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2232949C-C0BF-43F1-ABB8-B8EEC413BD32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB75121-3C2C-4A4D-A511-2003F555AA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="253">
   <si>
     <t>OrderNum</t>
   </si>
@@ -843,20 +843,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{453ECAE6-7D8F-4077-9B1E-7EAF2BE3F477}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -864,10 +871,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4640,7 +4647,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D59" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4997,7 +5004,7 @@
   <dataFields count="1">
     <dataField name="Sum of Total Price" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleDark1" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5016,23 +5023,23 @@
     <sortCondition ref="D1:D275"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{B2635F67-BF90-4DBF-8F83-49BD22B87B81}" name="SKU"/>
     <tableColumn id="6" xr3:uid="{212BE5BE-EE72-4FEF-A648-FA7B4E165F07}" name="ProductName"/>
-    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{B5B19F64-0A61-4C35-A8BD-8503D4E0B8A4}" name="Unit Price"/>
-    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5331,10 +5338,10 @@
   <dimension ref="A3:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -5416,15 +5423,18 @@
       <c r="B3" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5432,751 +5442,755 @@
       <c r="A6" s="3" t="s">
         <v>247</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>1060.2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>502.25000000000011</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>1562.4500000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>117194</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>45065</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>162259</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>5.24</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>62.88</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>68.12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>115.85000000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>99.300000000000011</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>215.15000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>475.75</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>482.5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>958.25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>9932</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>10593</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>20525</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>46841</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>145680</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>192521</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>13815</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>14481</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>28296</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>315.5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>323.5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>295.54999999999995</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>281.09999999999997</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>576.64999999999986</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>713.80000000000007</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>849.80000000000007</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <v>1563.6000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>4692</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>5474</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="6">
         <v>10166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>496.80000000000007</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>634.80000000000007</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="6">
         <v>1131.6000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>1114</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>1211</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="6">
         <v>2325</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>943.5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>1265.5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="6">
         <v>2209</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>6637.5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>1770</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>8407.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>10560</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>7920</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>18480</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>3417.75</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>2929.5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="6">
         <v>6347.25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>5310</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>7434</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6">
         <v>12744</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>4037.25</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <v>1730.25</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="6">
         <v>5767.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <v>22331.5</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>26809</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="6">
         <v>49140.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>187750</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <v>142690</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="6">
         <v>330440</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="6">
         <v>21520.5</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <v>22313</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="6">
         <v>43833.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>264770</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="6">
         <v>264763</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="6">
         <v>529533</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="6">
         <v>1285.5000000000002</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="6">
         <v>1792.9499999999998</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="6">
         <v>3078.45</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="6">
         <v>29409.25</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="6">
         <v>10128.5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="6">
         <v>39537.75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>10826.07</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="6">
         <v>10826.07</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="6">
         <v>21652.14</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>6016</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="6">
         <v>19552</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="6">
         <v>25568</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>281</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <v>327</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <v>49.199999999999996</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <v>65.599999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="6">
         <v>300.5</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <v>448.5</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>450.65</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <v>612.19999999999993</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <v>1062.8499999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="6">
         <v>742.5</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="6">
         <v>446.5</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="6">
         <v>1189</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="6">
         <v>417.8</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="6">
         <v>730.5</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="6">
         <v>1148.3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="6">
         <v>363.6</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="6">
         <v>576</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="6">
         <v>939.6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="6">
         <v>12569</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="6">
         <v>13760</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="6">
         <v>26329</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>55440</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="6">
         <v>46200</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="6">
         <v>101640</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="6">
         <v>15633</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="6">
         <v>23435</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="6">
         <v>39068</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="6">
         <v>20383</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="6">
         <v>24756</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="6">
         <v>45139</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="6">
         <v>26850</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="6">
         <v>16542</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="6">
         <v>43392</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>16684</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="6">
         <v>30792</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="6">
         <v>47476</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="6">
         <v>1636</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="6">
         <v>2363</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="6">
         <v>3999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="6">
         <v>381.75</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="6">
         <v>330.25</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="6">
         <v>712</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="6">
         <v>558.66000000000008</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="6">
         <v>1081.3200000000002</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="6">
         <v>1639.9800000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="6">
         <v>1674.3799999999999</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="6">
         <v>1627.02</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="6">
         <v>3301.3999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="6">
         <v>1718.04</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="6">
         <v>1590.2800000000002</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="6">
         <v>3308.32</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="6">
         <v>543492</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="6">
         <v>629296</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="6">
         <v>1172788</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="6">
         <v>440040</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="6">
         <v>660035</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="6">
         <v>1100075</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="6">
         <v>67436</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="6">
         <v>49040</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="6">
         <v>116476</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="6">
         <v>116425</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="6">
         <v>110297</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="6">
         <v>226722</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="6">
         <v>160762</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="6">
         <v>235768</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="6">
         <v>396530</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="6">
         <v>257469</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="6">
         <v>316863</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="6">
         <v>574332</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="6">
         <v>2513605.79</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="6">
         <v>2914629.67</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="6">
         <v>5428235.46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6188,7 +6202,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
